--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5072280715039142</v>
+        <v>0.6586837424368921</v>
       </c>
       <c r="D2">
-        <v>0.6120614133548492</v>
+        <v>0.5169339219371218</v>
       </c>
       <c r="E2">
         <v>0.6230207439103423</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.7388234682767936</v>
+        <v>0.7610772492157836</v>
       </c>
       <c r="D3">
-        <v>0.4601174652050863</v>
+        <v>0.4546919754065954</v>
       </c>
       <c r="E3">
         <v>0.6230207439103423</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.6483338381103417</v>
+        <v>0.5319573608018412</v>
       </c>
       <c r="D4">
-        <v>0.5168577065205224</v>
+        <v>0.600086898507417</v>
       </c>
       <c r="E4">
         <v>0.6230207439103423</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.001842870829600124</v>
+        <v>0.001993750337983194</v>
       </c>
       <c r="D5">
-        <v>0.9985298215734295</v>
+        <v>0.9984271870896357</v>
       </c>
       <c r="E5">
         <v>0.6230207439103423</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.1805902526392559</v>
+        <v>0.1790141207094957</v>
       </c>
       <c r="D6">
-        <v>0.8567110018219786</v>
+        <v>0.8595650064338478</v>
       </c>
       <c r="E6">
         <v>0.6115386625111195</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.09977291062317041</v>
+        <v>0.09249444439537173</v>
       </c>
       <c r="D7">
-        <v>0.9205365259447464</v>
+        <v>0.9271423253256992</v>
       </c>
       <c r="E7">
         <v>0.6115386625111195</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.5159647437664641</v>
+        <v>-0.5116462801877864</v>
       </c>
       <c r="D8">
-        <v>0.6059469708833016</v>
+        <v>0.6139960918957201</v>
       </c>
       <c r="E8">
         <v>0.6115386625111195</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.06971739517787294</v>
+        <v>-0.07108347660299966</v>
       </c>
       <c r="D9">
-        <v>0.9444268982289901</v>
+        <v>0.9439735570075347</v>
       </c>
       <c r="E9">
         <v>0.6071882553540292</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.6971377732222199</v>
+        <v>-0.6820429110905991</v>
       </c>
       <c r="D10">
-        <v>0.4858130896923618</v>
+        <v>0.5023300453092938</v>
       </c>
       <c r="E10">
         <v>0.6071882553540292</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.6089761576998388</v>
+        <v>-0.5746773032507861</v>
       </c>
       <c r="D11">
-        <v>0.5426226271108923</v>
+        <v>0.5713400428725668</v>
       </c>
       <c r="E11">
         <v>0.6088961056521713</v>
